--- a/biology/Écologie/Polémoflore/Polémoflore.xlsx
+++ b/biology/Écologie/Polémoflore/Polémoflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moflore</t>
+          <t>Polémoflore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La polémoflore ou (termes plus anciens) florule ou flore obsidionale[1],[2],[3] (en référence à la couronne obsidionale) désigne la flore typique des anciens lieux de guerre ou marquant les couloirs de passages d'armées. Cette flore entre dans le cadre des séquelles environnementales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La polémoflore ou (termes plus anciens) florule ou flore obsidionale (en référence à la couronne obsidionale) désigne la flore typique des anciens lieux de guerre ou marquant les couloirs de passages d'armées. Cette flore entre dans le cadre des séquelles environnementales.
 Cette flore significativement modifiée et parfois en partie nouvelle, peut persister des décennies, voire des siècles, après le passage de troupes ou de convois de réfugiés, ainsi que sur les lieux de combats. Elle participe à la constitution du polémosystème.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moflore</t>
+          <t>Polémoflore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle est caractérisée :
 d'une part, par les séquelles de la guerre sur le sol, souvent pollué par les munitions, explosifs, gaz de combat... et/ou remué en profondeur par les explosions, les sapes, les tranchées, etc.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pol%C3%A9moflore</t>
+          <t>Polémoflore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En Belgique
-Carex crawfordii, une espèce originaire d'Amérique du Nord, aurait été introduit en haute Ardenne par les troupes américaines à la fin de la Seconde Guerre mondiale[4].
-Eleocharis austriaca, observé en 2006 au camp militaire d'Elsenborn, pourrait y avoir été introduit par le charroi militaire en provenance du camp de Vogelsang où l'espèce est également signalée[5].
-En France
-En France, au moins 21 espèces végétales auraient ainsi été involontairement introduites par l'armée napoléonienne, les armées de la guerre de 70 et des deux guerres mondiales[6]. De telles plantes ont été trouvées dans les herbiers anciens et contemporains[7], jusque dans Paris[8].
-Liste de plantes obsidionales de France[1]
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carex crawfordii, une espèce originaire d'Amérique du Nord, aurait été introduit en haute Ardenne par les troupes américaines à la fin de la Seconde Guerre mondiale.
+Eleocharis austriaca, observé en 2006 au camp militaire d'Elsenborn, pourrait y avoir été introduit par le charroi militaire en provenance du camp de Vogelsang où l'espèce est également signalée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polémoflore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pol%C3%A9moflore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Polémoflore en Europe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En France, au moins 21 espèces végétales auraient ainsi été involontairement introduites par l'armée napoléonienne, les armées de la guerre de 70 et des deux guerres mondiales. De telles plantes ont été trouvées dans les herbiers anciens et contemporains, jusque dans Paris.
+Liste de plantes obsidionales de France
 Bunias orientalis L. - la Roquette d’Orient ou Bunias d’Orient, plante alimentaire (salade, légume-feuille) et fourragère d'origine orientale, introduite en France par les Cosaques poursuivant les troupes napoléoniennes en 1814
 Eryngium giganteum (en) L. - le Panicaut géant originaire du Caucase, arrivé avec la Légion russe, en 1914-1918
 Armeria vulgaris (en) Willd. - l'Armérie à tige allongée originaire du Nord de l’Allemagne, arrivée avec les troupes allemandes, lors de la Guerre de 1870
@@ -559,7 +612,7 @@
 Carex brizoides L. - la Laîche fausse brize utilisée comme rembourrage de paillasses des soldats allemands, durant la Première Guerre mondiale
 Gentiana lutea L. - la Gentiane jaune, cultivée en Moselle par les soldats bavarois de la 3e armée allemande après la défaite française de 1870
 Geranium pratense L. - le Géranium des prés, arrivé avec le ravitaillement des soldats allemands, via les chemins de fer en 1870 et 1914-1918
-Sisyrinchium montanum Greene - la Bermudienne, Herbe aux yeux bleus originaire d'Amérique du Nord, arrivée avec les soldats américains, durant la Première Guerre mondiale[9],[10]
+Sisyrinchium montanum Greene - la Bermudienne, Herbe aux yeux bleus originaire d'Amérique du Nord, arrivée avec les soldats américains, durant la Première Guerre mondiale,
 Glyceria striata (Lamarck) A. Hitchcock - la Glycérie striée, originaire d’Amérique du Nord, arrivée avec les cantonnements des troupes américaines en 1918
 Scirpus atrovirens (en) Willd. - le Scirpe vert sombre, originaire d’Amérique du Nord, probablement arrivée avec l'armée américaine en 1918
 Carex vulpinoidea Michx. - la Fausse Laîche des renards, originaire d’Amérique du Nord, probablement arrivée avec l'armée américaine en 1944
